--- a/Data/Processed/Angiosperms/missing_powo_ipni/Zingiberaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Zingiberaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 4, Fam. 46: 307. 1904 </t>
+          <t>Pflanzenr. (Engler) 4, Fam. 46: 307. 1904</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -565,7 +565,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 483. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 483. 1895</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -643,7 +643,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nat. Pflanzenfam., ed. 2 [Engler &amp; Prantl] 15a: 610. 1930 </t>
+          <t>Nat. Pflanzenfam., ed. 2 [Engler &amp; Prantl] 15a: 610. 1930</t>
         </is>
       </c>
       <c r="J4" t="b">
